--- a/protease_activity_analysis/tests/data/BV.03_IDtoSampleType_Batch2.xlsx
+++ b/protease_activity_analysis/tests/data/BV.03_IDtoSampleType_Batch2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melodi/Dropbox (MIT)/Sentinel Project/Urine ABNs - mouse studies/02_21_20_BV.03_20-plex pilot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melodi/protease_activity_analysis/protease_activity_analysis/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4F5489-9849-EF45-9C32-A32D68287A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979FB023-BE3D-C647-A06E-50CBDAD1C763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{BD94B0A3-C2A4-5745-A0BF-AD20916E29CE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{BD94B0A3-C2A4-5745-A0BF-AD20916E29CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -122,12 +122,6 @@
     <t>KP10</t>
   </si>
   <si>
-    <t xml:space="preserve">Viral control </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacteria control </t>
-  </si>
-  <si>
     <t xml:space="preserve">PR8 </t>
   </si>
   <si>
@@ -240,6 +234,9 @@
   </si>
   <si>
     <t>Control2</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
 </sst>
 </file>
@@ -636,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C437C01B-3887-0842-8B88-9B9BBBDDA988}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -663,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -679,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -687,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -695,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -703,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -711,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -719,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -727,164 +724,164 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -892,7 +889,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -900,7 +897,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -908,7 +905,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -916,7 +913,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -924,7 +921,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -932,7 +929,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -940,7 +937,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -948,7 +945,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -956,7 +953,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -964,7 +961,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
@@ -972,7 +969,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -980,7 +977,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -988,7 +985,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -1047,7 +1044,7 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1055,7 +1052,7 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1063,7 +1060,7 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1071,7 +1068,7 @@
         <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1079,7 +1076,7 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1087,7 +1084,7 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1095,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1103,7 +1100,7 @@
         <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1111,7 +1108,7 @@
         <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1119,15 +1116,15 @@
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
